--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5431624-CD7E-44E9-9152-82B2D0A9E401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE57C984-04B5-4D62-A084-840740AF9AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="147">
   <si>
     <t>승인프로세스</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -591,6 +591,24 @@
   </si>
   <si>
     <t>TC-PR-016</t>
+  </si>
+  <si>
+    <t>TC-SM-002</t>
+  </si>
+  <si>
+    <t>TC-SM-003</t>
+  </si>
+  <si>
+    <t>TC-SM-004</t>
+  </si>
+  <si>
+    <t>TC-SM-005</t>
+  </si>
+  <si>
+    <t>TC-SM-006</t>
+  </si>
+  <si>
+    <t>TC-SM-007</t>
   </si>
 </sst>
 </file>
@@ -851,7 +869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,50 +885,47 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1340,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1359,50 +1374,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1410,7 +1425,7 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1427,7 +1442,7 @@
       <c r="D7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1439,7 +1454,7 @@
       <c r="H7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="16" t="s">
         <v>87</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -1450,7 +1465,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1460,7 +1475,7 @@
         <v>54</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1468,7 +1483,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1478,7 +1493,7 @@
         <v>56</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="15"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1486,7 +1501,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1502,7 +1517,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1518,7 +1533,7 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,14 +1542,14 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1546,7 +1561,7 @@
       <c r="D13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1560,7 +1575,7 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1572,7 +1587,7 @@
       <c r="D14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1586,7 +1601,7 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1598,7 +1613,7 @@
       <c r="D15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1612,7 +1627,7 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1624,7 +1639,7 @@
       <c r="D16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1637,7 +1652,7 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1649,7 +1664,7 @@
       <c r="D17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1662,7 +1677,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1674,7 +1689,7 @@
       <c r="D18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1687,7 +1702,7 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="1"/>
@@ -1697,7 +1712,7 @@
       <c r="D19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1710,7 +1725,7 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="1"/>
@@ -1720,7 +1735,7 @@
       <c r="D20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="13" t="s">
         <v>80</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1733,7 +1748,7 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B21" s="1"/>
@@ -1743,7 +1758,7 @@
       <c r="D21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="13" t="s">
         <v>80</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1756,7 +1771,7 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B22" s="1"/>
@@ -1766,7 +1781,7 @@
       <c r="D22" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="13" t="s">
         <v>80</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1779,7 +1794,7 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B23" s="1"/>
@@ -1789,7 +1804,7 @@
       <c r="D23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="13" t="s">
         <v>80</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1802,7 +1817,7 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B24" s="1"/>
@@ -1812,7 +1827,7 @@
       <c r="D24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="13" t="s">
         <v>80</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1825,7 +1840,7 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B25" s="1"/>
@@ -1835,7 +1850,7 @@
       <c r="D25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1848,7 +1863,7 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1860,7 +1875,7 @@
       <c r="D26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -1873,7 +1888,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B27" s="1"/>
@@ -1883,7 +1898,7 @@
       <c r="D27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -1896,7 +1911,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B28" s="1"/>
@@ -1906,7 +1921,7 @@
       <c r="D28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="13" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -1919,7 +1934,7 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1928,9 +1943,14 @@
       <c r="C29" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="E29" s="13" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1939,7 +1959,9 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
@@ -1948,7 +1970,9 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1957,28 +1981,34 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+      <c r="A34" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1989,35 +2019,35 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2028,7 +2058,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
@@ -2037,7 +2067,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
@@ -2046,7 +2076,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
@@ -2055,7 +2085,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>41</v>
       </c>
@@ -2064,7 +2094,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
@@ -2073,7 +2103,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
+      <c r="A47" s="6"/>
       <c r="C47" s="2" t="s">
         <v>70</v>
       </c>
@@ -2106,8 +2136,8 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="A8:A12">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2118,8 +2148,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A12">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="F2">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE57C984-04B5-4D62-A084-840740AF9AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B262FA6B-3A98-41A3-B6B0-BED0A72B304E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="181">
   <si>
     <t>승인프로세스</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -190,10 +189,6 @@
   </si>
   <si>
     <t>TC-PR-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-SM-001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -593,22 +588,157 @@
     <t>TC-PR-016</t>
   </si>
   <si>
-    <t>TC-SM-002</t>
-  </si>
-  <si>
-    <t>TC-SM-003</t>
-  </si>
-  <si>
-    <t>TC-SM-004</t>
-  </si>
-  <si>
-    <t>TC-SM-005</t>
-  </si>
-  <si>
-    <t>TC-SM-006</t>
-  </si>
-  <si>
-    <t>TC-SM-007</t>
+    <t>TC-EM-002</t>
+  </si>
+  <si>
+    <t>TC-EM-001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 직원 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Employees (name, phone, hire_date, salary, role, location_type, insurance) VALUES ('홍길동', '010-1234-5678', '2024-03-10', 3000000, '매장 직원', '매장', 1);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원이 정상적으로 등록됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여를 음수로 입력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Employees (name, phone, hire_date, salary, role, location_type, insurance) VALUES ('김철수', '010-9999-8888', '2024-03-10', -500000, '매장 직원', '매장', 1);</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Store_Inventory WHERE store_id = 1 AND product_id = 5;</t>
+  </si>
+  <si>
+    <t>상품 출고 시 재고 차감</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	UPDATE Store_Inventory SET quantity = quantity - 10 WHERE store_id = 1 AND product_id = 5;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 상품의 재고가 감소</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"급여는 음수가 될 수 없습니다." 오류 발생</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 재고 수량이 출력됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장에서 물류센터로 발주 요청</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 매장의 특정 상품 재고 확인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Store_Order_Requests (store_id, quantity, status) VALUES (1, 100, '요청');</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주 요청이 정상 등록됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량 없이 요청</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Store_Order_Requests (store_id, status) VALUES (1, '요청');</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Column 'quantity' cannot be null" 오류 발생</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장에서 상품 결제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Payments (store_id, total_amount, payment_method) VALUES (1, 50000, '카드');</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 정보가 정상 등록됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-EM-003</t>
+  </si>
+  <si>
+    <t>TC-EM-004</t>
+  </si>
+  <si>
+    <t>TC-EM-005</t>
+  </si>
+  <si>
+    <t>TC-EM-006</t>
+  </si>
+  <si>
+    <t>TC-EM-007</t>
+  </si>
+  <si>
+    <t>TC-EM-008</t>
+  </si>
+  <si>
+    <t>TC-EM-009</t>
+  </si>
+  <si>
+    <t>TC-EM-010</t>
+  </si>
+  <si>
+    <t>결제 금액을 음수로 입력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	INSERT INTO Payments (store_id, total_amount, payment_method) VALUES (1, -10000, '현금');</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"결제 금액은 음수가 될 수 없습니다." 오류 발생</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 매장의 일별 매출 보고서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	SELECT store_id, SUM(total_amount) AS total_sales FROM Payments WHERE store_id = 1 AND created_at BETWEEN '2024-03-01' AND '2024-03-10' GROUP BY store_id;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출 데이터가 정상적으로 조회됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않는 매장의 매출 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">		SELECT store_id, SUM(total_amount) AS total_sales FROM Payments WHERE store_id = 999;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Query affected 0 rows" 오류 발생</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -869,7 +999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,6 +1056,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1353,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1367,7 +1500,7 @@
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="45.875" customWidth="1"/>
-    <col min="7" max="7" width="39.5" customWidth="1"/>
+    <col min="7" max="7" width="41.375" customWidth="1"/>
     <col min="8" max="8" width="23.375" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="16.875" customWidth="1"/>
@@ -1384,7 +1517,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1418,7 +1551,7 @@
         <v>33</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -1426,7 +1559,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -1440,10 +1573,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>1</v>
@@ -1452,13 +1585,13 @@
         <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>2</v>
@@ -1472,7 +1605,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="13"/>
@@ -1484,13 +1617,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="12"/>
@@ -1506,7 +1639,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1522,7 +1655,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1538,7 +1671,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1556,19 +1689,19 @@
         <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="1"/>
@@ -1576,25 +1709,25 @@
     </row>
     <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="1"/>
       <c r="J14" s="1"/>
@@ -1602,25 +1735,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="H15" s="1"/>
       <c r="J15" s="1"/>
@@ -1628,506 +1761,662 @@
     </row>
     <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>142</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="E29" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F30" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>39</v>
+      <c r="C35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="C50" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="C47" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:N7" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B262FA6B-3A98-41A3-B6B0-BED0A72B304E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986C9906-9A90-4459-8502-8EBFFCFDB75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Process" sheetId="2" r:id="rId1"/>
     <sheet name="Test" sheetId="1" r:id="rId2"/>
+    <sheet name="Customer" sheetId="3" r:id="rId3"/>
+    <sheet name="Product" sheetId="8" r:id="rId4"/>
+    <sheet name="Store" sheetId="9" r:id="rId5"/>
+    <sheet name="Payment" sheetId="10" r:id="rId6"/>
+    <sheet name="Delivery" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Test!$A$7:$N$7</definedName>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="246">
   <si>
     <t>승인프로세스</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -286,14 +291,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>배송 지연 및 오류 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송 품목 제한 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>유통기한 관리</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -302,15 +299,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>배송 예약 및 배송지역 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>배송 우선순위 설정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송 완료 확인 및 증빙</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -739,13 +728,289 @@
   <si>
     <t>"Query affected 0 rows" 오류 발생</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 설명</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상결과</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 메시지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁태호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송기사 상태값이 배송가능이 아닌경우</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Delivery (driver_id) SELECT driver_id
+FROM Delivery_driver WHERE status != '근무가능';</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"해당 기사는 근무가 가능하지 않습니다."</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송차량 상태값이 배송가능이 아닌경우</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Delivery_Car (Car_id) SELECT Car_id
+FROM Delivery_Car WHERE status != '배송가능';</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"해당 차량은 배차가 가능하지 않습니다."</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송기사가 자신의 id로 배송해야할 리스트를 출력하는 경우</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT do.*
+FROM Delivery_Option do
+JOIN Delivery d ON do.price_id = d.delivery_id
+WHERE d.status = '배송중'
+  AND d.driver_id = &lt;specific_driver_id&gt; 
+ORDER BY 
+    do.request_datetime IS NULL,  
+    do.request_datetime ASC;     </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜가 낮은순(우선순위)항목이 
+내림차순으로 배송중인 항목만 출력된다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 데이터 백업 및 API 개발</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송완료 상태값을 변경시도</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE Delivery
+SET status = '배송중'
+WHERE delivery_id = 1;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송완료된 데이터는 배송중으로
+ 상태값 변경이 불가</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-DM-002</t>
+  </si>
+  <si>
+    <t>TC-DM-003</t>
+  </si>
+  <si>
+    <t>TC-DM-004</t>
+  </si>
+  <si>
+    <t>고객의 기본 정보를 등록할 때 필수 항목을 누락한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Customer (name, email, phone, login_type) VALUES ('홍길동', NULL, '010-1234-5678', 'Form');</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이메일은 필수 입력 값입니다." 오류 발생</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않는 고객 ID로 고객 정보를 조회한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Customer WHERE customer_id = 9999;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회 결과 없음</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 고객의 주문 내역을 기간별로 조회한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Orders WHERE customer_id = 1 AND order_date BETWEEN '2025-01-01' AND '2025-03-10';</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 기간의 주문 내역만 조회된다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않는 주문 ID로 조회를 시도한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Orders WHERE order_id = 9999;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적 결제 금액에 따라 고객 등급이 자동으로 변경된다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE Grade SET accumulated_amount = 1000000 WHERE customer_id = 1;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적 금액에 따라 'VIP' 등급으로 변경됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 고객의 상담 내역을 조회한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM QnA WHERE customer_id = 1;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 고객의 상담 내역이 모두 조회된다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담이 답변 완료 상태일 때 삭제를 시도한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM QnA WHERE qna_id = 1 AND status = 'Completed';</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"답변 완료된 상담은 삭제할 수 없습니다." 오류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원이 본인이 응대한 상담 내역을 조회한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM QnA WHERE employee_id = 10;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 직원이 응대한 상담 내역만 조회됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원이 상담에 대한 답변을 등록한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE QnA SET employee_id = 10, answer_content = '답변 완료', answer_time = NOW(), status = 'Completed' WHERE qna_id = 1;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담이 'Completed' 상태로 업데이트됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원이 이미 완료된 상담의 답변을 수정하려고 한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE QnA SET answer_content = '수정된 답변' WHERE qna_id = 1;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"답변 완료된 상담은 수정할 수 없습니다." 오류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 기간 동안 접수된 상담 유형별 통계를 조회한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT status, COUNT(*) FROM QnA WHERE inquiry_time BETWEEN '2025-01-01' AND '2025-03-01' GROUP BY status;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태별 상담 접수 건수가 올바르게 집계됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점이 1~5 범위를 벗어난 경우 오류가 발생한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Review (customer_id, product_id, star, content) VALUES (1, 10, 6, '별점 초과');</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"별점은 1에서 5 사이여야 합니다." 오류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-CM-003</t>
+  </si>
+  <si>
+    <t>TC-CM-004</t>
+  </si>
+  <si>
+    <t>TC-CM-005</t>
+  </si>
+  <si>
+    <t>TC-CM-006</t>
+  </si>
+  <si>
+    <t>TC-CM-007</t>
+  </si>
+  <si>
+    <t>TC-CM-008</t>
+  </si>
+  <si>
+    <t>TC-CM-009</t>
+  </si>
+  <si>
+    <t>TC-CM-010</t>
+  </si>
+  <si>
+    <t>TC-CM-011</t>
+  </si>
+  <si>
+    <t>TC-CM-012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +1117,15 @@
       <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -964,7 +1238,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,8 +1272,11 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,17 +1328,23 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="20% - 강조색1" xfId="6" builtinId="30"/>
     <cellStyle name="20% - 강조색2" xfId="7" builtinId="34"/>
     <cellStyle name="20% - 강조색3" xfId="8" builtinId="38"/>
@@ -1073,6 +1356,7 @@
     <cellStyle name="요약" xfId="4" builtinId="25"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="11" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1486,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1507,10 +1791,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="18"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
@@ -1537,13 +1821,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="9" t="s">
         <v>32</v>
       </c>
@@ -1551,7 +1835,7 @@
         <v>33</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -1559,7 +1843,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -1573,10 +1857,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>1</v>
@@ -1585,19 +1869,19 @@
         <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1607,816 +1891,1057 @@
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="2"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A11" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12" s="2"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>80</v>
+        <v>215</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="H13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>114</v>
+        <v>218</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="H14" s="2"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>80</v>
+        <v>221</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>80</v>
+        <v>224</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A17" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H17" s="2"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>80</v>
+        <v>230</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="H18" s="2"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1"/>
+    <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="H19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="1"/>
+      <c r="A20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>79</v>
+        <v>109</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="1"/>
+    <row r="21" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>79</v>
+        <v>110</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="1"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>79</v>
+        <v>111</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="1"/>
+    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="1"/>
+    <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>79</v>
+        <v>112</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="1"/>
+      <c r="A25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>138</v>
+      <c r="A27" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>80</v>
+        <v>114</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>139</v>
+      <c r="A28" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>141</v>
+    <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>140</v>
+    <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>147</v>
+        <v>121</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
+    <row r="31" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="D44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="1" t="s">
+      <c r="C51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="1" t="s">
+      <c r="C52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="1" t="s">
+      <c r="C53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="C50" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:N7" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}"/>
@@ -2425,7 +2950,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A8:A12">
+  <conditionalFormatting sqref="F2">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2437,8 +2962,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="A8:A19">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2449,6 +2974,399 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I20" location="Customer!A3" display="PASS" xr:uid="{807EAF35-E764-4257-B60E-15EF59B4DE49}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCD7BAB-1D8B-4103-AFD7-8606A578C33A}">
+  <dimension ref="A2:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.25" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="8" max="8" width="45.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="20">
+        <v>45727.416666666664</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4540F3-6FC4-44DE-8925-B9E36B410745}">
+  <dimension ref="A2:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.25" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="8" max="8" width="45.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="20">
+        <v>45727.416666666664</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEDECDF-C473-4F60-9A87-58A78F3C9FBF}">
+  <dimension ref="A2:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.25" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="8" max="8" width="45.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="20">
+        <v>45727.416666666664</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703FBEAF-FF8A-48A1-BB15-258E82023C49}">
+  <dimension ref="A2:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.25" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="8" max="8" width="45.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="20">
+        <v>45727.416666666664</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7F33E5-1BED-4718-942C-9F114A0AD6C3}">
+  <dimension ref="A2:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.25" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="8" max="8" width="45.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="20">
+        <v>45727.416666666664</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986C9906-9A90-4459-8502-8EBFFCFDB75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB4E6B-B366-4EE3-A9A3-1D969C93BDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Process" sheetId="2" r:id="rId1"/>
     <sheet name="Test" sheetId="1" r:id="rId2"/>
     <sheet name="Customer" sheetId="3" r:id="rId3"/>
-    <sheet name="Product" sheetId="8" r:id="rId4"/>
-    <sheet name="Store" sheetId="9" r:id="rId5"/>
-    <sheet name="Payment" sheetId="10" r:id="rId6"/>
-    <sheet name="Delivery" sheetId="11" r:id="rId7"/>
+    <sheet name="Product" sheetId="12" r:id="rId4"/>
+    <sheet name="Store" sheetId="13" r:id="rId5"/>
+    <sheet name="Payment" sheetId="14" r:id="rId6"/>
+    <sheet name="Delivery" sheetId="15" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Test!$A$7:$N$7</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="247">
   <si>
     <t>승인프로세스</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -751,14 +751,6 @@
   </si>
   <si>
     <t>오류 메시지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>탁태호</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1004,6 +996,18 @@
   </si>
   <si>
     <t>TC-CM-012</t>
+  </si>
+  <si>
+    <t>최은우</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개선 사항</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1331,16 +1335,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1772,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1791,10 +1795,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="19"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
@@ -1821,13 +1825,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="9" t="s">
         <v>32</v>
       </c>
@@ -1892,16 +1896,16 @@
         <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>76</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="1"/>
@@ -1916,16 +1920,16 @@
         <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>76</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="1"/>
@@ -1933,23 +1937,23 @@
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="1"/>
@@ -1957,23 +1961,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>76</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="1"/>
@@ -1981,23 +1985,23 @@
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="1"/>
@@ -2005,23 +2009,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H13" s="2"/>
       <c r="J13" s="1"/>
@@ -2029,23 +2033,23 @@
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>76</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H14" s="2"/>
       <c r="J14" s="1"/>
@@ -2053,23 +2057,23 @@
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H15" s="2"/>
       <c r="J15" s="1"/>
@@ -2077,23 +2081,23 @@
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H16" s="2"/>
       <c r="J16" s="1"/>
@@ -2101,23 +2105,23 @@
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>76</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="1"/>
@@ -2125,23 +2129,23 @@
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="1"/>
@@ -2149,7 +2153,7 @@
     </row>
     <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
@@ -2158,16 +2162,16 @@
         <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
@@ -2196,7 +2200,7 @@
         <v>67</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="19" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="1"/>
@@ -2841,21 +2845,21 @@
         <v>64</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>76</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>40</v>
@@ -2864,21 +2868,21 @@
         <v>62</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>76</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>40</v>
@@ -2887,39 +2891,39 @@
         <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>76</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2950,8 +2954,8 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="A8:A19">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2962,8 +2966,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A19">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="F2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2983,390 +2987,450 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCD7BAB-1D8B-4103-AFD7-8606A578C33A}">
-  <dimension ref="A2:H3"/>
+  <dimension ref="A2:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.25" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
-    <col min="8" max="8" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="38.625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="20">
+      <c r="J2" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="18">
         <v>45727.416666666664</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4540F3-6FC4-44DE-8925-B9E36B410745}">
-  <dimension ref="A2:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100CF1DB-C88E-4739-9652-D29729CBF8DE}">
+  <dimension ref="A2:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.25" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
-    <col min="8" max="8" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="38.625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="20">
+      <c r="J2" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="18">
         <v>45727.416666666664</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEDECDF-C473-4F60-9A87-58A78F3C9FBF}">
-  <dimension ref="A2:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA10D1D-F076-4A45-8777-090DC950AE84}">
+  <dimension ref="A2:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.25" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
-    <col min="8" max="8" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="38.625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="20">
+      <c r="J2" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="18">
         <v>45727.416666666664</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703FBEAF-FF8A-48A1-BB15-258E82023C49}">
-  <dimension ref="A2:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835F2FB7-5B7A-4F7B-9B80-322893C61726}">
+  <dimension ref="A2:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.25" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
-    <col min="8" max="8" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="38.625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="20">
+      <c r="J2" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="18">
         <v>45727.416666666664</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7F33E5-1BED-4718-942C-9F114A0AD6C3}">
-  <dimension ref="A2:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14632B7-5952-4EA5-9970-4CEECC335F4E}">
+  <dimension ref="A2:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.25" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
-    <col min="8" max="8" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="38.625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="20">
+      <c r="J2" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="18">
         <v>45727.416666666664</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -5,24 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB4E6B-B366-4EE3-A9A3-1D969C93BDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36503CA8-AF20-4361-B3FE-998B70C74D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Process" sheetId="2" r:id="rId1"/>
-    <sheet name="Test" sheetId="1" r:id="rId2"/>
-    <sheet name="Customer" sheetId="3" r:id="rId3"/>
-    <sheet name="Product" sheetId="12" r:id="rId4"/>
-    <sheet name="Store" sheetId="13" r:id="rId5"/>
-    <sheet name="Payment" sheetId="14" r:id="rId6"/>
-    <sheet name="Delivery" sheetId="15" r:id="rId7"/>
+    <sheet name="Testcase" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer" sheetId="16" r:id="rId2"/>
+    <sheet name="Product" sheetId="20" r:id="rId3"/>
+    <sheet name="Store" sheetId="21" r:id="rId4"/>
+    <sheet name="Payment" sheetId="22" r:id="rId5"/>
+    <sheet name="Delivery" sheetId="23" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Test!$A$7:$N$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testcase!$A$7:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,11 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="247">
-  <si>
-    <t>승인프로세스</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="238">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -57,71 +52,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>실패</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이스</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>상황</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과값</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>기대결과</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 결과</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 결과2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템관리 &gt; 승인관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청자가 승인요청을 한 경우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청시 입력한 승인자가 승인을 한 경우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청시 입력하지 않은 승인자가 승인을 한 경우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청시 입력한 승인자가 반려를 한 경우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청시 입력하지 않은 승인자가 반려를 한 경우</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -747,10 +678,6 @@
   </si>
   <si>
     <t>예상결과</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류 메시지</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -998,15 +925,50 @@
     <t>TC-CM-012</t>
   </si>
   <si>
-    <t>최은우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>SQL</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>개선 사항</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 row(s) affected</t>
+  </si>
+  <si>
+    <t>탁태호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 가격을 음수 값으로 입력시 입력되지 않도록 제약사항 추가</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Code: 3819. Check constraint 'chk_positive_price' is violated.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 메시지를 우리가 지정하는 메시지로 수정 할 수 있는지 여부</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼리 실행 시간</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 시간</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.016 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1676,108 +1638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B861A1E-1CCB-4705-ADEE-23A5876B9AE1}">
-  <dimension ref="A4:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1796,116 +1661,116 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F1" s="21" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F3" s="7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F4" s="8" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="9" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="1"/>
@@ -1913,23 +1778,23 @@
     </row>
     <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="1"/>
@@ -1937,23 +1802,23 @@
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="1"/>
@@ -1961,23 +1826,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="1"/>
@@ -1985,23 +1850,23 @@
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="1"/>
@@ -2009,23 +1874,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="H13" s="2"/>
       <c r="J13" s="1"/>
@@ -2033,23 +1898,23 @@
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="H14" s="2"/>
       <c r="J14" s="1"/>
@@ -2057,23 +1922,23 @@
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="H15" s="2"/>
       <c r="J15" s="1"/>
@@ -2081,23 +1946,23 @@
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="H16" s="2"/>
       <c r="J16" s="1"/>
@@ -2105,23 +1970,23 @@
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="1"/>
@@ -2129,23 +1994,23 @@
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="1"/>
@@ -2153,25 +2018,25 @@
     </row>
     <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
@@ -2179,54 +2044,58 @@
     </row>
     <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="I20" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1"/>
       <c r="J21" s="1"/>
@@ -2234,25 +2103,25 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H22" s="1"/>
       <c r="J22" s="1"/>
@@ -2260,670 +2129,670 @@
     </row>
     <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2979,458 +2848,648 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I20" location="Customer!A3" display="PASS" xr:uid="{807EAF35-E764-4257-B60E-15EF59B4DE49}"/>
+    <hyperlink ref="I20" location="Product!A3" display="FAIL" xr:uid="{807EAF35-E764-4257-B60E-15EF59B4DE49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCD7BAB-1D8B-4103-AFD7-8606A578C33A}">
-  <dimension ref="A2:J3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7259E29-CB5E-4A5C-B0A7-CEF0D44896B8}">
+  <dimension ref="A2:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.875" customWidth="1"/>
-    <col min="3" max="3" width="38.625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="32.875" customWidth="1"/>
+    <col min="9" max="9" width="36.75" customWidth="1"/>
+    <col min="10" max="10" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E3" s="18">
-        <v>45727.416666666664</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+        <v>45727.839618055557</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="18">
+        <v>45727.854421296295</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>232</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09A374-A999-4B81-A430-C972CF611ADA}">
+  <dimension ref="A2:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="32.875" customWidth="1"/>
+    <col min="9" max="9" width="36.75" customWidth="1"/>
+    <col min="10" max="10" width="32.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="18">
+        <v>45727.839618055557</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="18">
+        <v>45727.854421296295</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100CF1DB-C88E-4739-9652-D29729CBF8DE}">
-  <dimension ref="A2:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
+  <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.875" customWidth="1"/>
-    <col min="3" max="3" width="38.625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="32.875" customWidth="1"/>
+    <col min="9" max="9" width="36.75" customWidth="1"/>
+    <col min="10" max="10" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E3" s="18">
-        <v>45727.416666666664</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+        <v>45727.839618055557</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="18">
+        <v>45727.854421296295</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA10D1D-F076-4A45-8777-090DC950AE84}">
-  <dimension ref="A2:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444E93D6-ED11-4590-A7D7-036BA4610650}">
+  <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.875" customWidth="1"/>
-    <col min="3" max="3" width="38.625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="32.875" customWidth="1"/>
+    <col min="9" max="9" width="36.75" customWidth="1"/>
+    <col min="10" max="10" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E3" s="18">
-        <v>45727.416666666664</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+        <v>45727.839618055557</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="18">
+        <v>45727.854421296295</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835F2FB7-5B7A-4F7B-9B80-322893C61726}">
-  <dimension ref="A2:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50FCE08-A9A6-4483-84DE-98EAA6AAEB1B}">
+  <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.875" customWidth="1"/>
-    <col min="3" max="3" width="38.625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="32.875" customWidth="1"/>
+    <col min="9" max="9" width="36.75" customWidth="1"/>
+    <col min="10" max="10" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E3" s="18">
-        <v>45727.416666666664</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+        <v>45727.839618055557</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="18">
+        <v>45727.854421296295</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14632B7-5952-4EA5-9970-4CEECC335F4E}">
-  <dimension ref="A2:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.875" customWidth="1"/>
-    <col min="3" max="3" width="38.625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="28.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="18">
-        <v>45727.416666666664</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36503CA8-AF20-4361-B3FE-998B70C74D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2563BB51-C624-423E-A764-A6EC27FC6CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -1641,8 +1641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2858,7 +2859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7259E29-CB5E-4A5C-B0A7-CEF0D44896B8}">
   <dimension ref="A2:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2940,7 +2941,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2563BB51-C624-423E-A764-A6EC27FC6CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B450D1-20B6-471D-9102-FC9A35FCBEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="243">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -970,6 +970,23 @@
   <si>
     <t>m</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.015 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 row(s) affected Rows matched: 1  Changed: 1  Warnings: 0</t>
+  </si>
+  <si>
+    <t>Error Code: 1364. Field 'quantity' doesn't have a default value</t>
+  </si>
+  <si>
+    <t>TC-EM-011</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
@@ -3110,10 +3127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
-  <dimension ref="A2:J5"/>
+  <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3162,27 +3179,27 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
+    <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E3" s="18">
-        <v>45727.839618055557</v>
+        <v>45727.870196759257</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>61</v>
+        <v>239</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>50</v>
@@ -3194,42 +3211,228 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
+    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E4" s="18">
-        <v>45727.854421296295</v>
+        <v>45727.879166666666</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>60</v>
+      <c r="G4" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>237</v>
-      </c>
+    <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="18">
+        <v>45727.884097222224</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="18">
+        <v>45727.881423611114</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="18">
+        <v>45727.882337962961</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="18">
+        <v>45727.883425925924</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="18">
+        <v>45727.884097222224</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="18">
+        <v>45727.884097222224</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="18">
+        <v>45728.884097222224</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="18">
+        <v>45729.884097222224</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="18">
+        <v>45730.884097222224</v>
+      </c>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B450D1-20B6-471D-9102-FC9A35FCBEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A60D44E-E54C-4AB6-A269-961AFDD01098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="262">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -340,23 +340,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>결제 처리 및 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>주문 통계 및 분석</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>주문 이력 관리 및 분석</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 취소 및 변경 관리</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -987,6 +975,86 @@
   </si>
   <si>
     <t>TC-EM-011</t>
+  </si>
+  <si>
+    <t>주문 관리</t>
+  </si>
+  <si>
+    <t>전체 주문을 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상</t>
+  </si>
+  <si>
+    <t>SELECT * FROM online_order oo INNER JOIN Online_Cart oc ON oo.online_cart_id = oc.online_cart_id INNER JOIN Online_Cart_Product ocp ON oc.online_cart_id = ocp.online_cart_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 내역이 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 취소시 취소 사유.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외</t>
+  </si>
+  <si>
+    <t>INSERT INTO online_cancels (transaction_key, cancel_reason, canceled_at, cancel_amount, tax_free_amount, refundable_amount, cancel_status) VALUES ('TXN12345', NULL, NOW(), 10000, 0, 10000, 'DONE');</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cancel_reason cannot be null" 오류 발생</t>
+  </si>
+  <si>
+    <t>월별 주문 내역을 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM online_order oo INNER JOIN Online_Cart oc ON oo.online_cart_id = oc.online_cart_id INNER JOIN Online_Cart_Product ocp ON oc.online_cart_id = ocp.online_cart_id INNER JOIN online_payment op ON oo.order_id = op.order_id WHERE DATE_FORMAT(op.approved_at, '%Y-%m') = '2025-02';</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 2월에 주문한 내역 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품별 주문 내역을 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM online_order oo INNER JOIN Online_Cart oc ON oo.online_cart_id = oc.online_cart_id INNER JOIN Online_Cart_Product ocp ON oc.online_cart_id = ocp.online_cart_id INNER JOIN Warehouse_Inventory wi ON ocp.inventory_id = wi.inventory_id INNER JOIN Product p ON wi.product_id = p.product_id WHERE p.product_id = ?;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 주문한 상품이면 내역 조회 / 없을 시 에러 발생</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객별 주문 내역을 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM online_order oo INNER JOIN Online_Cart oc ON oo.online_cart_id = oc.online_cart_id INNER JOIN Online_Cart_Product ocp ON oc.online_cart_id = ocp.online_cart_id WHERE oc.customer_id = ?;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객별 주문 내역이 표시</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-OC-002</t>
+  </si>
+  <si>
+    <t>TC-OC-003</t>
+  </si>
+  <si>
+    <t>TC-OC-004</t>
+  </si>
+  <si>
+    <t>TC-OC-005</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1325,6 +1393,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1658,9 +1732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1779,16 +1853,16 @@
         <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="1"/>
@@ -1803,16 +1877,16 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="1"/>
@@ -1820,23 +1894,23 @@
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="1"/>
@@ -1844,23 +1918,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="1"/>
@@ -1868,23 +1942,23 @@
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="1"/>
@@ -1892,23 +1966,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H13" s="2"/>
       <c r="J13" s="1"/>
@@ -1916,23 +1990,23 @@
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H14" s="2"/>
       <c r="J14" s="1"/>
@@ -1940,23 +2014,23 @@
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H15" s="2"/>
       <c r="J15" s="1"/>
@@ -1964,23 +2038,23 @@
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H16" s="2"/>
       <c r="J16" s="1"/>
@@ -1988,23 +2062,23 @@
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="1"/>
@@ -2012,23 +2086,23 @@
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="1"/>
@@ -2036,7 +2110,7 @@
     </row>
     <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -2045,16 +2119,16 @@
         <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
@@ -2071,7 +2145,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>59</v>
@@ -2083,13 +2157,13 @@
         <v>50</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>61</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -2104,7 +2178,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>59</v>
@@ -2130,7 +2204,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>59</v>
@@ -2181,13 +2255,13 @@
         <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>69</v>
@@ -2229,7 +2303,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>59</v>
@@ -2252,138 +2326,138 @@
         <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
@@ -2392,7 +2466,7 @@
         <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>59</v>
@@ -2408,99 +2482,99 @@
     </row>
     <row r="34" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
@@ -2509,21 +2583,21 @@
         <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
@@ -2532,21 +2606,21 @@
         <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -2555,21 +2629,21 @@
         <v>32</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
@@ -2578,21 +2652,21 @@
         <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
@@ -2601,21 +2675,21 @@
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
@@ -2624,21 +2698,21 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
@@ -2647,21 +2721,21 @@
         <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
@@ -2670,19 +2744,19 @@
         <v>34</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>21</v>
       </c>
@@ -2690,35 +2764,103 @@
         <v>11</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
+        <v>240</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>258</v>
+      </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
+        <v>240</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>259</v>
+      </c>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2732,21 +2874,21 @@
         <v>47</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>23</v>
@@ -2755,21 +2897,21 @@
         <v>45</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>23</v>
@@ -2778,39 +2920,39 @@
         <v>48</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2896,34 +3038,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -2931,19 +3073,19 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>61</v>
@@ -2952,10 +3094,10 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -2963,19 +3105,19 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>60</v>
@@ -2984,10 +3126,10 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3020,34 +3162,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3055,19 +3197,19 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>61</v>
@@ -3076,10 +3218,10 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3087,19 +3229,19 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>60</v>
@@ -3108,15 +3250,15 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3129,7 +3271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
   <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3149,54 +3291,54 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E3" s="18">
         <v>45727.870196759257</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>60</v>
@@ -3205,56 +3347,56 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E4" s="18">
         <v>45727.879166666666</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E5" s="18">
         <v>45727.884097222224</v>
@@ -3264,133 +3406,133 @@
         <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E6" s="18">
         <v>45727.881423611114</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>60</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E7" s="18">
         <v>45727.882337962961</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>60</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E8" s="18">
         <v>45727.883425925924</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>60</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E9" s="18">
         <v>45727.884097222224</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>60</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E10" s="18">
         <v>45727.884097222224</v>
@@ -3399,11 +3541,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E11" s="18">
         <v>45728.884097222224</v>
@@ -3412,10 +3554,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E12" s="18">
         <v>45729.884097222224</v>
@@ -3424,10 +3566,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E13" s="18">
         <v>45730.884097222224</v>
@@ -3464,34 +3606,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3499,19 +3641,19 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>61</v>
@@ -3520,10 +3662,10 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3531,19 +3673,19 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>60</v>
@@ -3552,15 +3694,15 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3593,34 +3735,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3628,19 +3770,19 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>61</v>
@@ -3649,10 +3791,10 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3660,19 +3802,19 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>60</v>
@@ -3681,15 +3823,15 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sodamsodam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B450D1-20B6-471D-9102-FC9A35FCBEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7433E00A-681D-4FA6-BBA1-A45E856F727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="248">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -987,6 +987,25 @@
   </si>
   <si>
     <t>TC-EM-011</t>
+  </si>
+  <si>
+    <t>ALTER TABLE employees
+ADD CONSTRAINT chk_positive CHECK (salary &gt;= 0);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000003 row(s) affected Records: 1000003  Duplicates: 0  Warnings: 0</t>
+  </si>
+  <si>
+    <t>16.468 sec</t>
+  </si>
+  <si>
+    <t>급여를 음수 값으로 입력시 입력되지 않도록 제약사항 추가</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약 사항 추가 시 많은 시간 소요</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2877,7 +2896,7 @@
   <dimension ref="A2:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3130,7 +3149,7 @@
   <dimension ref="A2:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3207,9 +3226,7 @@
       <c r="I3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>230</v>
-      </c>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -3240,10 +3257,10 @@
         <v>228</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>143</v>
       </c>
@@ -3251,7 +3268,7 @@
         <v>125</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>238</v>
@@ -3259,14 +3276,21 @@
       <c r="E5" s="18">
         <v>45727.884097222224</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="G5" s="15" t="s">
         <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
